--- a/Excel/StartZoneConfig@s.xlsx
+++ b/Excel/StartZoneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1653E7C4-598C-413D-AE8A-4CD7C3D6E03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392CCF9F-CB74-44D4-B5F4-71962E04C482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1095" yWindow="630" windowWidth="28935" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>WeiJing203(robot)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeiJing201(alpha)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#内部服</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F10"/>
+  <dimension ref="C3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -529,43 +537,57 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>203</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Excel/StartZoneConfig@s.xlsx
+++ b/Excel/StartZoneConfig@s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392CCF9F-CB74-44D4-B5F4-71962E04C482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E928FAE2-AB54-4062-9372-A86EAD396BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -44,10 +44,6 @@
   </si>
   <si>
     <t>mongodb://localhost:27017/</t>
-  </si>
-  <si>
-    <t>#版号服</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>#中心服</t>
@@ -58,31 +54,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WeiJing1</t>
+    <t>WJBeta1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WeiJing2</t>
+    <t>WJBeta2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WeiJing201(banhao)</t>
+    <t>WJBeta202(center)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WeiJing202(center)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeiJing203(robot)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeiJing201(alpha)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#内部服</t>
+    <t>WJBeta203(robot)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F11"/>
+  <dimension ref="C3:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -521,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
@@ -532,26 +516,26 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
@@ -560,35 +544,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="3">
-        <v>202</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="3">
-        <v>203</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartZoneConfig@s.xlsx
+++ b/Excel/StartZoneConfig@s.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E928FAE2-AB54-4062-9372-A86EAD396BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB70C24-A15A-43AD-87D5-78EF31456C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>WJBeta203(robot)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F9"/>
+  <dimension ref="C3:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -521,29 +525,40 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
+        <v>203</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Excel/StartZoneConfig@s.xlsx
+++ b/Excel/StartZoneConfig@s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB70C24-A15A-43AD-87D5-78EF31456C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5210FCCC-F46E-4208-A376-27BC180229CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="675" windowWidth="27810" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{B22A87E2-D051-484D-A765-2ED3DA9AFEDF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+实际数据库区(合区后的真实区服)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -71,6 +107,18 @@
   </si>
   <si>
     <t>WJBeta3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicZone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +153,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -451,11 +514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -464,11 +527,12 @@
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="41.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="33.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -476,10 +540,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -487,10 +554,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
@@ -498,67 +568,85 @@
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>202</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="5">
+        <v>202</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>203</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="5">
+        <v>203</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -566,5 +654,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/StartZoneConfig@s.xlsx
+++ b/Excel/StartZoneConfig@s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5210FCCC-F46E-4208-A376-27BC180229CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072D705A-B721-4F18-809C-6B2D1D5A1619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="675" windowWidth="27810" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G10"/>
+  <dimension ref="C3:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -618,35 +622,49 @@
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5">
+        <v>202</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
         <v>203</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>203</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Excel/StartZoneConfig@s.xlsx
+++ b/Excel/StartZoneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072D705A-B721-4F18-809C-6B2D1D5A1619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EAC426-3FDC-4297-8BAA-B4CF89C6BC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="795" windowWidth="24990" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -124,6 +124,26 @@
   <si>
     <t>WJBeta4</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta7</t>
+  </si>
+  <si>
+    <t>WJBeta8</t>
+  </si>
+  <si>
+    <t>WJBeta9</t>
+  </si>
+  <si>
+    <t>WJBeta10</t>
   </si>
 </sst>
 </file>
@@ -519,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G11"/>
+  <dimension ref="C3:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -628,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>18</v>
@@ -636,35 +656,119 @@
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>202</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5">
+        <v>202</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
         <v>203</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5">
         <v>203</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Excel/StartZoneConfig@s.xlsx
+++ b/Excel/StartZoneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EAC426-3FDC-4297-8BAA-B4CF89C6BC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09CBE26-AF25-42AB-B6DD-843D349B4105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="795" windowWidth="24990" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,12 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{B22A87E2-D051-484D-A765-2ED3DA9AFEDF}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -41,7 +40,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -56,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
   <si>
     <t>Id</t>
   </si>
@@ -64,12 +62,18 @@
     <t>数据库地址</t>
   </si>
   <si>
+    <t>物理区</t>
+  </si>
+  <si>
     <t>数据库名</t>
   </si>
   <si>
     <t>DBConnection</t>
   </si>
   <si>
+    <t>PhysicZone</t>
+  </si>
+  <si>
     <t>DBName</t>
   </si>
   <si>
@@ -82,75 +86,291 @@
     <t>mongodb://localhost:27017/</t>
   </si>
   <si>
+    <t>WJBeta1</t>
+  </si>
+  <si>
+    <t>WJBeta2</t>
+  </si>
+  <si>
+    <t>封测区</t>
+  </si>
+  <si>
+    <t>WJBeta3</t>
+  </si>
+  <si>
+    <t>WJBeta4</t>
+  </si>
+  <si>
+    <t>WJBeta5</t>
+  </si>
+  <si>
+    <t>先锋1</t>
+  </si>
+  <si>
+    <t>12合区34合区</t>
+  </si>
+  <si>
+    <t>WJBeta6</t>
+  </si>
+  <si>
+    <t>先锋2</t>
+  </si>
+  <si>
+    <t>WJBeta7</t>
+  </si>
+  <si>
+    <t>先锋3</t>
+  </si>
+  <si>
+    <t>WJBeta8</t>
+  </si>
+  <si>
+    <t>先锋4</t>
+  </si>
+  <si>
+    <t>WJBeta9</t>
+  </si>
+  <si>
+    <t>先锋5</t>
+  </si>
+  <si>
+    <t>567合区</t>
+  </si>
+  <si>
+    <t>WJBeta10</t>
+  </si>
+  <si>
+    <t>先锋6</t>
+  </si>
+  <si>
+    <t>WJBeta11</t>
+  </si>
+  <si>
+    <t>先锋7</t>
+  </si>
+  <si>
+    <t>WJBeta12</t>
+  </si>
+  <si>
+    <t>兔年大吉</t>
+  </si>
+  <si>
+    <t>WJBeta13</t>
+  </si>
+  <si>
+    <t>玉兔新春</t>
+  </si>
+  <si>
+    <t>WJBeta14</t>
+  </si>
+  <si>
+    <t>元宵佳节</t>
+  </si>
+  <si>
+    <t>WJBeta15</t>
+  </si>
+  <si>
+    <t>金戈铁马</t>
+  </si>
+  <si>
+    <t>WJBeta16</t>
+  </si>
+  <si>
+    <t>世外桃源</t>
+  </si>
+  <si>
+    <t>WJBeta17</t>
+  </si>
+  <si>
+    <t>名扬四海</t>
+  </si>
+  <si>
+    <t>WJBeta18</t>
+  </si>
+  <si>
+    <t>华灯初上</t>
+  </si>
+  <si>
+    <t>WJBeta19</t>
+  </si>
+  <si>
+    <t>灯火阑珊</t>
+  </si>
+  <si>
+    <t>WJBeta20</t>
+  </si>
+  <si>
+    <t>似水流年</t>
+  </si>
+  <si>
+    <t>WJBeta21</t>
+  </si>
+  <si>
+    <t>秋水人家</t>
+  </si>
+  <si>
+    <t>WJBeta22</t>
+  </si>
+  <si>
+    <t>烟雨云烟</t>
+  </si>
+  <si>
+    <t>WJBeta23</t>
+  </si>
+  <si>
+    <t>繁星之梦</t>
+  </si>
+  <si>
+    <t>WJBeta24</t>
+  </si>
+  <si>
+    <t>碧空之歌</t>
+  </si>
+  <si>
+    <t>WJBeta25</t>
+  </si>
+  <si>
+    <t>灰烬使者</t>
+  </si>
+  <si>
+    <t>WJBeta26</t>
+  </si>
+  <si>
+    <t>劳动光荣</t>
+  </si>
+  <si>
+    <t>WJBeta27</t>
+  </si>
+  <si>
+    <t>逐风者</t>
+  </si>
+  <si>
+    <t>WJBeta28</t>
+  </si>
+  <si>
+    <t>命运之剑</t>
+  </si>
+  <si>
+    <t>WJBeta29</t>
+  </si>
+  <si>
+    <t>紫禁之巅</t>
+  </si>
+  <si>
+    <t>WJBeta30</t>
+  </si>
+  <si>
+    <t>天空之城</t>
+  </si>
+  <si>
+    <t>WJBeta31</t>
+  </si>
+  <si>
+    <t>遗忘之海</t>
+  </si>
+  <si>
+    <t>WJBeta32</t>
+  </si>
+  <si>
+    <t>金榜题名</t>
+  </si>
+  <si>
+    <t>WJBeta33</t>
+  </si>
+  <si>
+    <t>鱼跃龙门</t>
+  </si>
+  <si>
+    <t>WJBeta34</t>
+  </si>
+  <si>
+    <t>龙舟竞渡</t>
+  </si>
+  <si>
+    <t>WJBeta35</t>
+  </si>
+  <si>
+    <t>梦境之地</t>
+  </si>
+  <si>
+    <t>WJBeta36</t>
+  </si>
+  <si>
+    <t>叹息森林</t>
+  </si>
+  <si>
+    <t>WJBeta37</t>
+  </si>
+  <si>
+    <t>风之国度</t>
+  </si>
+  <si>
+    <t>WJBeta38</t>
+  </si>
+  <si>
+    <t>燃烧之刃</t>
+  </si>
+  <si>
+    <t>WJBeta39</t>
+  </si>
+  <si>
+    <t>北海之都</t>
+  </si>
+  <si>
+    <t>WJBeta40</t>
+  </si>
+  <si>
+    <t>曙光之城</t>
+  </si>
+  <si>
+    <t>WJBeta41</t>
+  </si>
+  <si>
+    <t>世界之树</t>
+  </si>
+  <si>
+    <t>WJBeta42</t>
+  </si>
+  <si>
+    <t>雷霆之路</t>
+  </si>
+  <si>
+    <t>WJBeta43</t>
+  </si>
+  <si>
+    <t>天之骄子</t>
+  </si>
+  <si>
+    <t>WJBeta202(center)</t>
+  </si>
+  <si>
     <t>#中心服</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta203(robot)</t>
   </si>
   <si>
     <t>#机器人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta202(center)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta203(robot)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicZone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WJBeta7</t>
-  </si>
-  <si>
-    <t>WJBeta8</t>
-  </si>
-  <si>
-    <t>WJBeta9</t>
-  </si>
-  <si>
-    <t>WJBeta10</t>
+  </si>
+  <si>
+    <t>WJBeta44</t>
+  </si>
+  <si>
+    <t>天涯海角</t>
+  </si>
+  <si>
+    <t>WJBeta45</t>
+  </si>
+  <si>
+    <t>长相思</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,28 +393,38 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="5"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +434,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,6 +495,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G17"/>
+  <dimension ref="C3:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -553,10 +820,12 @@
     <col min="4" max="4" width="41.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="33.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="21" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="23.75" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -564,46 +833,46 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -612,12 +881,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -625,157 +894,813 @@
       <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5">
         <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" s="5">
         <v>5</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3">
         <v>9</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5">
+        <v>12</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="3">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="3">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5">
+        <v>12</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="3">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5">
+        <v>12</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="3">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="5">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="3">
+        <v>20</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="5">
+        <v>12</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="3">
+        <v>21</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="5">
+        <v>12</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="3">
+        <v>22</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="5">
+        <v>22</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="3">
+        <v>23</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="5">
+        <v>22</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="3">
+      <c r="D29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="5">
+        <v>22</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="3">
+        <v>25</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="5">
+        <v>22</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="3">
+        <v>26</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="5">
+        <v>22</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="3">
+        <v>27</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="5">
+        <v>22</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="3">
+        <v>28</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="5">
+        <v>22</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="3">
+        <v>29</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="5">
+        <v>22</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="3">
+        <v>30</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="5">
+        <v>22</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="3">
+        <v>31</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="5">
+        <v>22</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="3">
+        <v>32</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="5">
+        <v>32</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="3">
+        <v>33</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="5">
+        <v>32</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="3">
+        <v>34</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="5">
+        <v>34</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="3">
+        <v>35</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="5">
+        <v>34</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="3">
+        <v>36</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="5">
+        <v>36</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="3">
+        <v>37</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="5">
+        <v>36</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="3">
+        <v>38</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="5">
+        <v>38</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="3">
+        <v>39</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="5">
+        <v>38</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="3">
+        <v>40</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="5">
+        <v>40</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="3">
+        <v>41</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="5">
+        <v>41</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="3">
+        <v>42</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="5">
+        <v>42</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="3">
+        <v>43</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="5">
+        <v>43</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="3">
+        <v>44</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="5">
+        <v>44</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50" s="3">
+        <v>45</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="5">
+        <v>45</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="3">
         <v>202</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="5">
         <v>202</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="3">
+      <c r="F51" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="3">
         <v>203</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="5">
         <v>203</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>9</v>
+      <c r="F52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>